--- a/Vision/test_folder.xlsx
+++ b/Vision/test_folder.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\github graduate\Valkyrie\Vision\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{067248BF-43C3-4220-BDD8-E4A40561D469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791A6C28-5587-4FCD-B406-099C717EB2F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5250" yWindow="5380" windowWidth="28800" windowHeight="15560" xr2:uid="{14EDED8D-3EA8-45CD-B7BE-AD5CEFDD22DD}"/>
+    <workbookView xWindow="6980" yWindow="5500" windowWidth="28800" windowHeight="15560" xr2:uid="{14EDED8D-3EA8-45CD-B7BE-AD5CEFDD22DD}"/>
   </bookViews>
   <sheets>
-    <sheet name="SUM data" sheetId="1" r:id="rId1"/>
+    <sheet name="Sum Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="18">
   <si>
     <t>name</t>
   </si>
@@ -49,6 +49,46 @@
   </si>
   <si>
     <t>item4</t>
+  </si>
+  <si>
+    <t>Panel ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>XX</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>SS5</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>SS6</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>SS7</t>
+  </si>
+  <si>
+    <t>A.R.</t>
+  </si>
+  <si>
+    <t>SS8</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>total SSS</t>
   </si>
 </sst>
 </file>
@@ -94,12 +134,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -415,31 +458,336 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99157E7D-454D-4AC0-855B-252DCB7A1F3A}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19">
+        <v>111</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A14:A19"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>